--- a/negociacao-exemplo.xlsx
+++ b/negociacao-exemplo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t xml:space="preserve">Data do Negócio</t>
   </si>
@@ -52,25 +52,31 @@
     <t xml:space="preserve">25/11/2020</t>
   </si>
   <si>
+    <t xml:space="preserve">Venda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercado à Vista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSTITUIÇÃO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODIGO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01/11/2020</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compra</t>
   </si>
   <si>
-    <t xml:space="preserve">Mercado à Vista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INSTITUIÇÃO</t>
-  </si>
-  <si>
     <t xml:space="preserve">CODIGO1</t>
   </si>
   <si>
-    <t xml:space="preserve">Venda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CODIGO2</t>
+    <t xml:space="preserve">02/10/2020</t>
   </si>
 </sst>
 </file>
@@ -87,6 +93,7 @@
       <sz val="10"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -153,24 +160,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -191,268 +202,285 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.41015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.29"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5" t="n">
+        <f aca="false">G2*H2</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>100</v>
       </c>
-      <c r="H2" s="4" t="n">
+      <c r="H3" s="5" t="n">
         <v>15</v>
       </c>
-      <c r="I2" s="4" t="n">
-        <f aca="false">G2*H2</f>
+      <c r="I3" s="5" t="n">
+        <f aca="false">G3*H3</f>
         <v>1500</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>150</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <f aca="false">G3*H3</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <f aca="false">G4*H4</f>
+        <v>125</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="A11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="A12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="A13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="A14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="A15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="A16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="A17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="A18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="A19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="A20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="A21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="A22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="A23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
+      <c r="A24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
